--- a/Hands on projects/TimeSheets/Lucky/Lucky_Manamela_March2025_Final.xlsx
+++ b/Hands on projects/TimeSheets/Lucky/Lucky_Manamela_March2025_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northerndata-my.sharepoint.com/personal/lucky_manamela_sambeconsulting_com/Documents/Desktop/Sambe Consulting/Time sheet/March time sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc_LuckyManamela_2025\Hands on projects\TimeSheets\Lucky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2A1680A1-47BA-4ADD-94E0-6A7F61F617C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16AA46E-BB45-49C1-868E-BE8FF1A9561D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9EFF1B-7F81-42B3-8BA4-2A5476479B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -878,7 +878,7 @@
     <numFmt numFmtId="166" formatCode="_ [$R-1C09]\ * #,##0.00_ ;_ [$R-1C09]\ * \-#,##0.00_ ;_ [$R-1C09]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="[$R-1C09]#,##0.00;\-[$R-1C09]#,##0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1707,20 +1707,71 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1960,16 +2011,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2068,22 +2112,59 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2091,146 +2172,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="103">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2903,6 +2844,146 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6758C6CA-2356-4535-9D9D-86230C423211}"/>
@@ -3311,23 +3392,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="H2:H62" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="F2:F39" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F19">
     <sortCondition ref="F2:F19"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3605,22 +3686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63D3D5-6C83-45F2-B2A7-43EE15BF1EF3}">
   <dimension ref="A5:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
-    <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="8" width="13.69921875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3714,7 @@
       </c>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3726,7 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="46"/>
       <c r="C7" s="37"/>
@@ -3650,3166 +3735,3166 @@
       <c r="H7" s="40"/>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="150" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="22">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="151">
         <v>45719</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="154">
         <f t="shared" ref="H9" si="0">J9-I9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="22">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="151">
         <v>45720</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="113">
+      <c r="H10" s="154">
         <f t="shared" ref="H10:H12" si="1">J10-I10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="22">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="151">
         <v>45721</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="154">
         <f t="shared" si="1"/>
         <v>0.33333333333333365</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="22">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="151">
         <v>45722</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="154">
         <f t="shared" si="1"/>
         <v>0.33333333333333365</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="22">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="151">
         <v>45723</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="154">
         <f>J13-I13</f>
         <v>0.33333333333333365</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A14" s="22">
+    <row r="14" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="151">
         <v>45726</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="154">
         <f t="shared" ref="H14" si="2">J14-I14</f>
         <v>3.125E-2</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="155">
         <v>0.34375</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="156">
         <v>0.375</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A15" s="22">
+    <row r="15" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
         <v>45726</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="154">
         <f t="shared" ref="H15:H25" si="3">J15-I15</f>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="155">
         <v>0.375</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="156">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A16" s="22">
+    <row r="16" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="151">
         <v>45726</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="113">
+      <c r="H16" s="154">
         <f t="shared" si="3"/>
         <v>7.6388888888889173E-3</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="155">
         <v>0.42708333333333331</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="156">
         <v>0.43472222222222223</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A17" s="22">
+    <row r="17" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="151">
         <v>45726</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="113">
+      <c r="H17" s="159">
         <f t="shared" si="3"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="155">
         <v>0.4375</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="22">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="151">
         <v>45726</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="113">
+      <c r="H18" s="159">
         <f t="shared" si="3"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="22">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="151">
         <v>45726</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="113">
+      <c r="H19" s="159">
         <f t="shared" si="3"/>
         <v>0.12500000000000033</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="22">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="151">
         <v>45726</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="115" t="s">
+      <c r="G20" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="113">
+      <c r="H20" s="154">
         <f t="shared" si="3"/>
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="156">
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="22">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="151">
         <v>45727</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="112" t="s">
+      <c r="F21" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="154">
         <f t="shared" si="3"/>
         <v>2.6388888888888906E-2</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="155">
         <v>0.34375</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="156">
         <v>0.37013888888888891</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="22">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="151">
         <v>45727</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="113">
+      <c r="H22" s="154">
         <f t="shared" si="3"/>
         <v>0.12847222222222221</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="155">
         <v>0.37152777777777779</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="22">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="151">
         <v>45727</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="113">
+      <c r="H23" s="154">
         <f t="shared" si="3"/>
         <v>0.12500000000000033</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="22">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="151">
         <v>45727</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="115" t="s">
+      <c r="G24" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="154">
         <f t="shared" si="3"/>
         <v>6.8055555555555647E-2</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="156">
         <v>0.73472222222222228</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="22">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="151">
         <v>45728</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="115" t="s">
+      <c r="G25" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="113">
+      <c r="H25" s="154">
         <f t="shared" si="3"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="156">
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30">
-      <c r="A26" s="22">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="151">
         <v>45728</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="113">
+      <c r="H26" s="154">
         <f t="shared" ref="H26:H31" si="4">J26-I26</f>
         <v>0.1076388888888889</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="155">
         <v>0.35069444444444442</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="22">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="151">
         <v>45728</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="113">
+      <c r="H27" s="154">
         <f t="shared" si="4"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30">
-      <c r="A28" s="22">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="151">
         <v>45728</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="112" t="s">
+      <c r="F28" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G28" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="154">
         <f t="shared" si="4"/>
         <v>0.12500000000000033</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="22">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="151">
         <v>45728</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="112" t="s">
+      <c r="F29" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="113">
+      <c r="H29" s="154">
         <f t="shared" si="4"/>
         <v>7.9166666666666718E-2</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="156">
         <v>0.74583333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="22">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="151">
         <v>45729</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="112" t="s">
+      <c r="F30" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="113">
+      <c r="H30" s="154">
         <f t="shared" si="4"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="156">
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30">
-      <c r="A31" s="22">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="151">
         <v>45729</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="112" t="s">
+      <c r="F31" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="115" t="s">
+      <c r="G31" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="113">
+      <c r="H31" s="154">
         <f t="shared" si="4"/>
         <v>6.9444444444444475E-2</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="155">
         <v>0.34722222222222221</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="156">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30">
-      <c r="A32" s="22">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="151">
         <v>45729</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="112" t="s">
+      <c r="F32" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="113">
+      <c r="H32" s="154">
         <f t="shared" ref="H32:H44" si="5">J32-I32</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="155">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="22">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="151">
         <v>45729</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="115" t="s">
+      <c r="G33" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="113">
+      <c r="H33" s="154">
         <f t="shared" si="5"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30">
-      <c r="A34" s="22">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="151">
         <v>45729</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="112" t="s">
+      <c r="F34" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="113">
+      <c r="H34" s="154">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="22">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="151">
         <v>45729</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="115" t="s">
+      <c r="G35" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="113">
+      <c r="H35" s="154">
         <f t="shared" si="5"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="156">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="22">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="151">
         <v>45729</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="115" t="s">
+      <c r="G36" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="113">
+      <c r="H36" s="154">
         <f t="shared" si="5"/>
         <v>5.1388888888888928E-2</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="155">
         <v>0.6875</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="156">
         <v>0.73888888888888893</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="25.15">
-      <c r="A37" s="22">
+    <row r="37" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A37" s="151">
         <v>45729</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="113">
+      <c r="H37" s="154">
         <f t="shared" si="5"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="155">
         <v>0.73888888888888893</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="156">
         <v>0.75277777777777777</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="22">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="151">
         <v>45730</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="115" t="s">
+      <c r="G38" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="113">
+      <c r="H38" s="154">
         <f t="shared" si="5"/>
         <v>1.4583333333333337E-2</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="156">
         <v>0.34791666666666665</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30">
-      <c r="A39" s="22">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="151">
         <v>45730</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="115" t="s">
+      <c r="G39" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="113">
+      <c r="H39" s="154">
         <f t="shared" si="5"/>
         <v>0.11041666666666666</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="155">
         <v>0.34791666666666665</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30">
-      <c r="A40" s="22">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="151">
         <v>45730</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="113">
+      <c r="H40" s="154">
         <f t="shared" si="5"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="156">
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30">
-      <c r="A41" s="22">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="151">
         <v>45730</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="113">
+      <c r="H41" s="154">
         <f t="shared" si="5"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="155">
         <v>0.55208333333333337</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="156">
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45">
-      <c r="A42" s="22">
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="151">
         <v>45730</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="112" t="s">
+      <c r="F42" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="115" t="s">
+      <c r="G42" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="113">
+      <c r="H42" s="154">
         <f t="shared" si="5"/>
         <v>9.3750000000000333E-2</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="155">
         <v>0.57291666666666663</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="156">
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="22">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="151">
         <v>45730</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="115" t="s">
+      <c r="G43" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="113">
+      <c r="H43" s="154">
         <f t="shared" si="5"/>
         <v>8.680555555555558E-2</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="156">
         <v>0.75347222222222221</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30">
-      <c r="A44" s="22">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="151">
         <v>45733</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="113">
+      <c r="H44" s="154">
         <f t="shared" si="5"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="156">
         <v>0.375</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="75">
-      <c r="A45" s="22">
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="151">
         <v>45733</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="112" t="s">
+      <c r="F45" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="115" t="s">
+      <c r="G45" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="113">
+      <c r="H45" s="154">
         <f t="shared" ref="H45:H59" si="6">J45-I45</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="155">
         <v>0.375</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30">
-      <c r="A46" s="22">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="151">
         <v>45733</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="115" t="s">
+      <c r="G46" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="113">
+      <c r="H46" s="154">
         <f t="shared" si="6"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="75">
-      <c r="A47" s="22">
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="151">
         <v>45733</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="115" t="s">
+      <c r="G47" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="113">
+      <c r="H47" s="154">
         <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="60">
-      <c r="A48" s="22">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="151">
         <v>45733</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="115" t="s">
+      <c r="G48" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="113">
+      <c r="H48" s="154">
         <f t="shared" si="6"/>
         <v>7.0138888888888973E-2</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="156">
         <v>0.7368055555555556</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="30">
-      <c r="A49" s="22">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="151">
         <v>45734</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="112" t="s">
+      <c r="F49" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="115" t="s">
+      <c r="G49" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="113">
+      <c r="H49" s="154">
         <f t="shared" si="6"/>
         <v>1.1805555555555569E-2</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="156">
         <v>0.34513888888888888</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30">
-      <c r="A50" s="22">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="151">
         <v>45734</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="112" t="s">
+      <c r="F50" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="115" t="s">
+      <c r="G50" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="113">
+      <c r="H50" s="154">
         <f t="shared" si="6"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="155">
         <v>0.34722222222222221</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30">
-      <c r="A51" s="22">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="151">
         <v>45734</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="112" t="s">
+      <c r="F51" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="115" t="s">
+      <c r="G51" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="113">
+      <c r="H51" s="154">
         <f t="shared" si="6"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="45">
-      <c r="A52" s="22">
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="151">
         <v>45734</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="112" t="s">
+      <c r="F52" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="115" t="s">
+      <c r="G52" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="113">
+      <c r="H52" s="154">
         <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="60">
-      <c r="A53" s="22">
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="151">
         <v>45734</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="112" t="s">
+      <c r="F53" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="115" t="s">
+      <c r="G53" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="113">
+      <c r="H53" s="154">
         <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="156">
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30">
-      <c r="A54" s="22">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="151">
         <v>45735</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="115" t="s">
+      <c r="G54" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="113">
+      <c r="H54" s="154">
         <f t="shared" si="6"/>
         <v>1.2500000000000011E-2</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J54" s="156">
         <v>0.34583333333333333</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="45">
-      <c r="A55" s="22">
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="151">
         <v>45735</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F55" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="115" t="s">
+      <c r="G55" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="113">
+      <c r="H55" s="154">
         <f t="shared" si="6"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="155">
         <v>0.34722222222222221</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30">
-      <c r="A56" s="22">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="151">
         <v>45735</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="112" t="s">
+      <c r="F56" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="115" t="s">
+      <c r="G56" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H56" s="113">
+      <c r="H56" s="154">
         <f t="shared" si="6"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30">
-      <c r="A57" s="22">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="151">
         <v>45735</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="115" t="s">
+      <c r="G57" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="113">
+      <c r="H57" s="154">
         <f t="shared" si="6"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="156">
         <v>0.625</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="45">
-      <c r="A58" s="22">
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="151">
         <v>45735</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="112" t="s">
+      <c r="F58" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="115" t="s">
+      <c r="G58" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="113">
+      <c r="H58" s="154">
         <f>J58-I58</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="155">
         <v>0.625</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="45">
-      <c r="A59" s="22">
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="151">
         <v>45735</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="115" t="s">
+      <c r="G59" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="113">
+      <c r="H59" s="154">
         <f t="shared" si="6"/>
         <v>0.10277777777777786</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J59" s="156">
         <v>0.76944444444444449</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30">
-      <c r="A60" s="22">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="151">
         <v>45736</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="112" t="s">
+      <c r="F60" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="115" t="s">
+      <c r="G60" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="H60" s="113">
+      <c r="H60" s="154">
         <f t="shared" ref="H60:H66" si="7">J60-I60</f>
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="156">
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30">
-      <c r="A61" s="22">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="151">
         <v>45736</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="112" t="s">
+      <c r="F61" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="115" t="s">
+      <c r="G61" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="H61" s="113">
+      <c r="H61" s="154">
         <f t="shared" si="7"/>
         <v>0.11805555555555552</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="155">
         <v>0.34027777777777779</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30">
-      <c r="A62" s="22">
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="151">
         <v>45736</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="115" t="s">
+      <c r="G62" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="113">
+      <c r="H62" s="154">
         <f t="shared" si="7"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30">
-      <c r="A63" s="22">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="151">
         <v>45736</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="112" t="s">
+      <c r="F63" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="115" t="s">
+      <c r="G63" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="113">
+      <c r="H63" s="154">
         <f t="shared" si="7"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="155">
         <v>0.5</v>
       </c>
-      <c r="J63" s="30">
+      <c r="J63" s="156">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30">
-      <c r="A64" s="22">
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="151">
         <v>45736</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="115" t="s">
+      <c r="G64" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="113">
+      <c r="H64" s="154">
         <f t="shared" si="7"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="155">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J64" s="30">
+      <c r="J64" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="22">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="151">
         <v>45736</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="112" t="s">
+      <c r="F65" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="115" t="s">
+      <c r="G65" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="113">
+      <c r="H65" s="154">
         <f t="shared" si="7"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J65" s="156">
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="22">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="151">
         <v>45737</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="112" t="s">
+      <c r="F66" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="115" t="s">
+      <c r="G66" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="113">
+      <c r="H66" s="154">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J66" s="30">
+      <c r="J66" s="156">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="22">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="151">
         <v>45740</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="112" t="s">
+      <c r="F67" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="115" t="s">
+      <c r="G67" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="113">
+      <c r="H67" s="154">
         <f t="shared" ref="H67" si="8">J67-I67</f>
         <v>0</v>
       </c>
-      <c r="I67" s="30">
+      <c r="I67" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J67" s="30">
+      <c r="J67" s="156">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30">
-      <c r="A68" s="22">
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="151">
         <v>45741</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="112" t="s">
+      <c r="F68" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="115" t="s">
+      <c r="G68" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="113">
-        <f t="shared" ref="H68:H108" si="9">J68-I68</f>
+      <c r="H68" s="154">
+        <f t="shared" ref="H68:H80" si="9">J68-I68</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J68" s="156">
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45">
-      <c r="A69" s="22">
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="151">
         <v>45741</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="112" t="s">
+      <c r="F69" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="115" t="s">
+      <c r="G69" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="113">
+      <c r="H69" s="154">
         <f t="shared" si="9"/>
         <v>0.10069444444444448</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="155">
         <v>0.35069444444444442</v>
       </c>
-      <c r="J69" s="30">
+      <c r="J69" s="156">
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30">
-      <c r="A70" s="22">
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="151">
         <v>45741</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="112" t="s">
+      <c r="F70" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="115" t="s">
+      <c r="G70" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="113">
+      <c r="H70" s="154">
         <f t="shared" si="9"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J70" s="30">
+      <c r="J70" s="156">
         <v>0.49305555555555558</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30">
-      <c r="A71" s="22">
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="151">
         <v>45741</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="112" t="s">
+      <c r="F71" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="115" t="s">
+      <c r="G71" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="113">
+      <c r="H71" s="154">
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J71" s="30">
+      <c r="J71" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30">
-      <c r="A72" s="22">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="151">
         <v>45741</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="112" t="s">
+      <c r="F72" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="115" t="s">
+      <c r="G72" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="H72" s="113">
+      <c r="H72" s="154">
         <f t="shared" si="9"/>
         <v>7.5694444444444509E-2</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J72" s="30">
+      <c r="J72" s="156">
         <v>0.74236111111111114</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15">
-      <c r="A73" s="22">
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="151">
         <v>45742</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="112" t="s">
+      <c r="F73" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="115" t="s">
+      <c r="G73" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H73" s="113">
+      <c r="H73" s="154">
         <f t="shared" si="9"/>
         <v>1.4583333333333337E-2</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I73" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J73" s="30">
+      <c r="J73" s="156">
         <v>0.34791666666666665</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="45">
-      <c r="A74" s="22">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="151">
         <v>45742</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="112" t="s">
+      <c r="F74" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="115" t="s">
+      <c r="G74" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="H74" s="113">
+      <c r="H74" s="154">
         <f t="shared" si="9"/>
         <v>4.5138888888888895E-2</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I74" s="155">
         <v>0.35069444444444442</v>
       </c>
-      <c r="J74" s="30">
+      <c r="J74" s="156">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15">
-      <c r="A75" s="22">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="151">
         <v>45742</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="27" t="s">
+      <c r="E75" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="112" t="s">
+      <c r="F75" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="115" t="s">
+      <c r="G75" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="H75" s="113">
+      <c r="H75" s="154">
         <f t="shared" si="9"/>
         <v>2.4305555555555525E-2</v>
       </c>
-      <c r="I75" s="30">
+      <c r="I75" s="155">
         <v>0.39930555555555558</v>
       </c>
-      <c r="J75" s="30">
+      <c r="J75" s="156">
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30">
-      <c r="A76" s="22">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="151">
         <v>45742</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="112" t="s">
+      <c r="F76" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="115" t="s">
+      <c r="G76" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="113">
+      <c r="H76" s="154">
         <f t="shared" si="9"/>
         <v>3.125E-2</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="155">
         <v>0.42708333333333331</v>
       </c>
-      <c r="J76" s="30">
+      <c r="J76" s="156">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30">
-      <c r="A77" s="22">
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="151">
         <v>45742</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="112" t="s">
+      <c r="F77" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="115" t="s">
+      <c r="G77" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="113">
+      <c r="H77" s="154">
         <f t="shared" si="9"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="I77" s="30">
+      <c r="I77" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J77" s="30">
+      <c r="J77" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45">
-      <c r="A78" s="22">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="151">
         <v>45742</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E78" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="112" t="s">
+      <c r="F78" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="115" t="s">
+      <c r="G78" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="H78" s="113">
+      <c r="H78" s="154">
         <f t="shared" si="9"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="I78" s="30">
+      <c r="I78" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J78" s="30">
+      <c r="J78" s="156">
         <v>0.55902777777777779</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="60">
-      <c r="A79" s="22">
+    <row r="79" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="151">
         <v>45742</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="112" t="s">
+      <c r="F79" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="115" t="s">
+      <c r="G79" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="113">
+      <c r="H79" s="154">
         <f t="shared" si="9"/>
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="I79" s="30">
+      <c r="I79" s="155">
         <v>0.56111111111111112</v>
       </c>
-      <c r="J79" s="30">
+      <c r="J79" s="156">
         <v>0.625</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="30">
-      <c r="A80" s="22">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="151">
         <v>45742</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="112" t="s">
+      <c r="F80" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G80" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H80" s="113">
+      <c r="H80" s="154">
         <f t="shared" si="9"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="155">
         <v>0.625</v>
       </c>
-      <c r="J80" s="30">
+      <c r="J80" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45">
-      <c r="A81" s="22">
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="151">
         <v>45742</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="112" t="s">
+      <c r="F81" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="G81" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="113">
+      <c r="H81" s="154">
         <f t="shared" ref="H81:H108" si="10">J81-I81</f>
         <v>6.1805555555555558E-2</v>
       </c>
-      <c r="I81" s="30">
+      <c r="I81" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J81" s="30">
+      <c r="J81" s="156">
         <v>0.72847222222222219</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="30">
-      <c r="A82" s="22">
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="151">
         <v>45743</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="112" t="s">
+      <c r="F82" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="115" t="s">
+      <c r="G82" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="113">
+      <c r="H82" s="154">
         <f t="shared" si="10"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J82" s="30">
+      <c r="J82" s="156">
         <v>0.34375</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="75">
-      <c r="A83" s="22">
+    <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="151">
         <v>45743</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="112" t="s">
+      <c r="F83" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="115" t="s">
+      <c r="G83" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="113">
+      <c r="H83" s="154">
         <f t="shared" si="10"/>
         <v>3.819444444444442E-2</v>
       </c>
-      <c r="I83" s="30">
+      <c r="I83" s="155">
         <v>0.34027777777777779</v>
       </c>
-      <c r="J83" s="30">
+      <c r="J83" s="156">
         <v>0.37847222222222221</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30">
-      <c r="A84" s="22">
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="151">
         <v>45743</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="112" t="s">
+      <c r="F84" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="115" t="s">
+      <c r="G84" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="H84" s="113">
+      <c r="H84" s="154">
         <f t="shared" si="10"/>
         <v>7.2916666666666685E-2</v>
       </c>
-      <c r="I84" s="30">
+      <c r="I84" s="155">
         <v>0.38194444444444442</v>
       </c>
-      <c r="J84" s="30">
+      <c r="J84" s="156">
         <v>0.4548611111111111</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30">
-      <c r="A85" s="22">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="151">
         <v>45743</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="112" t="s">
+      <c r="F85" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="115" t="s">
+      <c r="G85" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="H85" s="113">
+      <c r="H85" s="154">
         <f t="shared" si="10"/>
         <v>5.9722222222222288E-2</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J85" s="30">
+      <c r="J85" s="156">
         <v>0.5180555555555556</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30">
-      <c r="A86" s="22">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="151">
         <v>45743</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="112" t="s">
+      <c r="F86" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="115" t="s">
+      <c r="G86" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="113">
+      <c r="H86" s="154">
         <f t="shared" si="10"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="155">
         <v>0.5625</v>
       </c>
-      <c r="J86" s="30">
+      <c r="J86" s="156">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30">
-      <c r="A87" s="22">
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="151">
         <v>45743</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C87" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E87" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="112" t="s">
+      <c r="F87" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="115" t="s">
+      <c r="G87" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="113">
+      <c r="H87" s="154">
         <f t="shared" si="10"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I87" s="155">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J87" s="30">
+      <c r="J87" s="156">
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30">
-      <c r="A88" s="22">
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="151">
         <v>45743</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E88" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="112" t="s">
+      <c r="F88" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="115" t="s">
+      <c r="G88" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="H88" s="113">
+      <c r="H88" s="154">
         <f t="shared" si="10"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="155">
         <v>0.60763888888888884</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J88" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45">
-      <c r="A89" s="22">
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="151">
         <v>45743</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="112" t="s">
+      <c r="F89" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="115" t="s">
+      <c r="G89" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="H89" s="113">
+      <c r="H89" s="154">
         <f t="shared" si="10"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J89" s="30">
+      <c r="J89" s="156">
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30">
-      <c r="A90" s="22">
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="151">
         <v>45744</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="112" t="s">
+      <c r="F90" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="115" t="s">
+      <c r="G90" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="H90" s="113">
+      <c r="H90" s="154">
         <f t="shared" si="10"/>
         <v>1.4583333333333337E-2</v>
       </c>
-      <c r="I90" s="30">
+      <c r="I90" s="155">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J90" s="30">
+      <c r="J90" s="156">
         <v>0.34791666666666665</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45">
-      <c r="A91" s="22">
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="151">
         <v>45744</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="112" t="s">
+      <c r="F91" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="115" t="s">
+      <c r="G91" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="H91" s="113">
+      <c r="H91" s="154">
         <f t="shared" si="10"/>
         <v>0.10625000000000001</v>
       </c>
-      <c r="I91" s="30">
+      <c r="I91" s="155">
         <v>0.35069444444444442</v>
       </c>
-      <c r="J91" s="30">
+      <c r="J91" s="156">
         <v>0.45694444444444443</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30">
-      <c r="A92" s="22">
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="151">
         <v>45744</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E92" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="112" t="s">
+      <c r="F92" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="115" t="s">
+      <c r="G92" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="H92" s="113">
+      <c r="H92" s="154">
         <f t="shared" si="10"/>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="155">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J92" s="30">
+      <c r="J92" s="156">
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="45">
-      <c r="A93" s="22">
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="151">
         <v>45744</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E93" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="112" t="s">
+      <c r="F93" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="115" t="s">
+      <c r="G93" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="H93" s="113">
+      <c r="H93" s="154">
         <f t="shared" si="10"/>
         <v>1.7361111111111105E-2</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="155">
         <v>0.4826388888888889</v>
       </c>
-      <c r="J93" s="30">
+      <c r="J93" s="156">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="60">
-      <c r="A94" s="22">
+    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="151">
         <v>45744</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E94" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="112" t="s">
+      <c r="F94" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="115" t="s">
+      <c r="G94" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H94" s="113">
+      <c r="H94" s="154">
         <f t="shared" si="10"/>
         <v>0.125</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I94" s="155">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J94" s="30">
+      <c r="J94" s="156">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="45">
-      <c r="A95" s="22">
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="151">
         <v>45744</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E95" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="112" t="s">
+      <c r="F95" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="115" t="s">
+      <c r="G95" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="H95" s="113">
+      <c r="H95" s="154">
         <f t="shared" si="10"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="I95" s="30">
+      <c r="I95" s="155">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J95" s="30">
+      <c r="J95" s="156">
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="50.25">
-      <c r="A96" s="149" t="s">
+    <row r="96" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
+      <c r="A96" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="150" t="s">
+      <c r="B96" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="150" t="s">
+      <c r="C96" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="150" t="s">
+      <c r="D96" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="150" t="s">
+      <c r="E96" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="150" t="s">
+      <c r="F96" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="151" t="s">
+      <c r="G96" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="H96" s="152">
+      <c r="H96" s="165">
         <v>1.4583333333333334E-2</v>
       </c>
-      <c r="I96" s="153">
+      <c r="I96" s="166">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J96" s="153">
+      <c r="J96" s="167">
         <v>0.34791666666666665</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="12.75">
-      <c r="A97" s="154" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="155" t="s">
+      <c r="B97" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="155" t="s">
+      <c r="C97" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="155" t="s">
+      <c r="D97" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E97" s="155" t="s">
+      <c r="E97" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="155" t="s">
+      <c r="F97" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="156" t="s">
+      <c r="G97" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="H97" s="157">
+      <c r="H97" s="165">
         <v>4.7222222222222221E-2</v>
       </c>
-      <c r="I97" s="158">
+      <c r="I97" s="166">
         <v>0.34861111111111109</v>
       </c>
-      <c r="J97" s="158">
+      <c r="J97" s="167">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75">
-      <c r="A98" s="154" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="155" t="s">
+      <c r="B98" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="155" t="s">
+      <c r="C98" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="155" t="s">
+      <c r="D98" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E98" s="155" t="s">
+      <c r="E98" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="155" t="s">
+      <c r="F98" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="156" t="s">
+      <c r="G98" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="H98" s="157">
+      <c r="H98" s="165">
         <v>6.25E-2</v>
       </c>
-      <c r="I98" s="158">
+      <c r="I98" s="166">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J98" s="158">
+      <c r="J98" s="167">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="25.5">
-      <c r="A99" s="154" t="s">
+    <row r="99" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A99" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="155" t="s">
+      <c r="B99" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="155" t="s">
+      <c r="C99" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="155" t="s">
+      <c r="D99" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E99" s="155" t="s">
+      <c r="E99" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="155" t="s">
+      <c r="F99" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G99" s="156" t="s">
+      <c r="G99" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="H99" s="157">
+      <c r="H99" s="165">
         <v>1.8055555555555554E-2</v>
       </c>
-      <c r="I99" s="158">
+      <c r="I99" s="166">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J99" s="158">
+      <c r="J99" s="167">
         <v>0.47638888888888886</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="25.5">
-      <c r="A100" s="154" t="s">
+    <row r="100" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A100" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="155" t="s">
+      <c r="B100" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="155" t="s">
+      <c r="C100" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="155" t="s">
+      <c r="D100" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E100" s="155" t="s">
+      <c r="E100" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="155" t="s">
+      <c r="F100" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="156" t="s">
+      <c r="G100" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="H100" s="157">
+      <c r="H100" s="165">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="I100" s="158">
+      <c r="I100" s="166">
         <v>0.47638888888888886</v>
       </c>
-      <c r="J100" s="158">
+      <c r="J100" s="167">
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75">
-      <c r="A101" s="154" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="155" t="s">
+      <c r="B101" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="155" t="s">
+      <c r="C101" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="155" t="s">
+      <c r="D101" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E101" s="155" t="s">
+      <c r="E101" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="155" t="s">
+      <c r="F101" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="156" t="s">
+      <c r="G101" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="H101" s="157">
+      <c r="H101" s="165">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I101" s="158">
+      <c r="I101" s="166">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J101" s="158">
+      <c r="J101" s="167">
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="12.75">
-      <c r="A102" s="154" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="155" t="s">
+      <c r="C102" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="155" t="s">
+      <c r="D102" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="E102" s="155" t="s">
+      <c r="E102" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="155" t="s">
+      <c r="F102" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="156" t="s">
+      <c r="G102" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="H102" s="157">
+      <c r="H102" s="165">
         <v>0.1</v>
       </c>
-      <c r="I102" s="158">
+      <c r="I102" s="166">
         <v>0.56666666666666665</v>
       </c>
-      <c r="J102" s="158">
+      <c r="J102" s="167">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="37.5">
-      <c r="A103" s="154" t="s">
+    <row r="103" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A103" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="155" t="s">
+      <c r="C103" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="155" t="s">
+      <c r="D103" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="E103" s="155" t="s">
+      <c r="E103" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="155" t="s">
+      <c r="F103" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="G103" s="156" t="s">
+      <c r="G103" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="H103" s="157">
+      <c r="H103" s="170">
         <v>6.25E-2</v>
       </c>
-      <c r="I103" s="158">
+      <c r="I103" s="171">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J103" s="158">
+      <c r="J103" s="172">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15">
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="32"/>
@@ -6817,11 +6902,11 @@
       <c r="E104" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="112" t="s">
+      <c r="F104" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="115"/>
-      <c r="H104" s="113">
+      <c r="G104" s="113"/>
+      <c r="H104" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6832,7 +6917,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="32"/>
@@ -6840,11 +6925,11 @@
       <c r="E105" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="112" t="s">
+      <c r="F105" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G105" s="115"/>
-      <c r="H105" s="113">
+      <c r="G105" s="113"/>
+      <c r="H105" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6855,7 +6940,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="32"/>
@@ -6863,11 +6948,11 @@
       <c r="E106" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="112" t="s">
+      <c r="F106" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="115"/>
-      <c r="H106" s="113">
+      <c r="G106" s="113"/>
+      <c r="H106" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6878,7 +6963,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="32"/>
@@ -6886,11 +6971,11 @@
       <c r="E107" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="112" t="s">
+      <c r="F107" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G107" s="115"/>
-      <c r="H107" s="113">
+      <c r="G107" s="113"/>
+      <c r="H107" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6901,7 +6986,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15">
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="32"/>
@@ -6909,11 +6994,11 @@
       <c r="E108" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="112" t="s">
+      <c r="F108" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="115"/>
-      <c r="H108" s="113">
+      <c r="G108" s="113"/>
+      <c r="H108" s="112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6924,7 +7009,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="13.15" thickBot="1">
+    <row r="110" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="46"/>
       <c r="B110" s="46"/>
       <c r="G110" s="40"/>
@@ -6932,7 +7017,7 @@
       <c r="I110" s="74"/>
       <c r="J110" s="74"/>
     </row>
-    <row r="111" spans="1:10" ht="13.15">
+    <row r="111" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -6946,7 +7031,7 @@
       </c>
       <c r="H111" s="40"/>
     </row>
-    <row r="112" spans="1:10" ht="13.9" thickBot="1">
+    <row r="112" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="9"/>
@@ -6959,18 +7044,18 @@
       </c>
       <c r="H112" s="40"/>
     </row>
-    <row r="113" spans="1:8" ht="14.45" thickBot="1">
-      <c r="A113" s="117" t="s">
+    <row r="113" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
       <c r="D113" s="12"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="H113" s="40"/>
     </row>
-    <row r="114" spans="1:8" ht="13.9">
+    <row r="114" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="6"/>
@@ -6984,12 +7069,12 @@
       </c>
       <c r="H114" s="38"/>
     </row>
-    <row r="115" spans="1:8" ht="14.45" thickBot="1">
-      <c r="A115" s="118" t="s">
+    <row r="115" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="118"/>
-      <c r="C115" s="118"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="115"/>
       <c r="D115" s="16"/>
       <c r="E115" s="17" t="s">
         <v>96</v>
@@ -7000,7 +7085,7 @@
       </c>
       <c r="H115" s="40"/>
     </row>
-    <row r="116" spans="1:8" ht="14.45" thickBot="1">
+    <row r="116" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7014,7 +7099,7 @@
       </c>
       <c r="H116" s="40"/>
     </row>
-    <row r="117" spans="1:8" ht="13.9" thickBot="1">
+    <row r="117" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7023,7 +7108,7 @@
       <c r="F117" s="2"/>
       <c r="H117" s="40"/>
     </row>
-    <row r="118" spans="1:8" ht="13.9" thickBot="1">
+    <row r="118" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7034,7 +7119,7 @@
       <c r="F118" s="21"/>
       <c r="H118" s="40"/>
     </row>
-    <row r="119" spans="1:8" ht="13.15" thickBot="1">
+    <row r="119" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E119" s="39"/>
       <c r="H119" s="40"/>
     </row>
@@ -7045,56 +7130,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D7:E7">
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="13" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="14" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="93" priority="14" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="15" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="16" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="91" priority="16" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="17" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B119 B8:B95 B104:B108">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Saturday">
+  <conditionalFormatting sqref="B8:B95 B104:B108 B110:B119">
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="87" priority="2" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:E111 D113:E115 E118">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="83" priority="6" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="81" priority="8" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D111)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7148,18 +7233,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -7169,7 +7254,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -7183,10 +7268,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -7218,7 +7303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>45597</v>
       </c>
@@ -7251,7 +7336,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45598</v>
       </c>
@@ -7270,7 +7355,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>45599</v>
       </c>
@@ -7289,7 +7374,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45600</v>
       </c>
@@ -7308,7 +7393,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45601</v>
       </c>
@@ -7327,7 +7412,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45602</v>
       </c>
@@ -7346,7 +7431,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45603</v>
       </c>
@@ -7365,7 +7450,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45604</v>
       </c>
@@ -7384,7 +7469,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45605</v>
       </c>
@@ -7403,7 +7488,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>45606</v>
       </c>
@@ -7422,7 +7507,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45607</v>
       </c>
@@ -7441,7 +7526,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45608</v>
       </c>
@@ -7460,7 +7545,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45609</v>
       </c>
@@ -7479,7 +7564,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45610</v>
       </c>
@@ -7498,7 +7583,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45611</v>
       </c>
@@ -7517,7 +7602,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45612</v>
       </c>
@@ -7536,7 +7621,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>45613</v>
       </c>
@@ -7555,7 +7640,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45614</v>
       </c>
@@ -7574,7 +7659,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45615</v>
       </c>
@@ -7593,7 +7678,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45616</v>
       </c>
@@ -7612,7 +7697,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45617</v>
       </c>
@@ -7631,7 +7716,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45618</v>
       </c>
@@ -7650,7 +7735,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
         <v>45619</v>
       </c>
@@ -7669,7 +7754,7 @@
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>45620</v>
       </c>
@@ -7688,7 +7773,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45621</v>
       </c>
@@ -7707,7 +7792,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>45622</v>
       </c>
@@ -7726,7 +7811,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45623</v>
       </c>
@@ -7745,7 +7830,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45624</v>
       </c>
@@ -7764,7 +7849,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45625</v>
       </c>
@@ -7783,7 +7868,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="31">
         <v>45626</v>
       </c>
@@ -7802,7 +7887,7 @@
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -7813,7 +7898,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -7827,7 +7912,7 @@
       </c>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
@@ -7840,18 +7925,18 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A42" s="117" t="s">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9">
+    <row r="43" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="6"/>
@@ -7865,12 +7950,12 @@
       </c>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="118" t="s">
+    <row r="44" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="16"/>
       <c r="E44" s="17" t="s">
         <v>96</v>
@@ -7881,7 +7966,7 @@
       </c>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:10" ht="14.45" thickBot="1">
+    <row r="45" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7895,7 +7980,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="13.9" thickBot="1">
+    <row r="46" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7904,7 +7989,7 @@
       <c r="F46" s="2"/>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7915,7 +8000,7 @@
       <c r="F47" s="21"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.15" thickBot="1">
+    <row r="48" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E48" s="39"/>
       <c r="H48" s="40"/>
     </row>
@@ -7926,56 +8011,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="22" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="78" priority="22" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="23" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="24" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="25" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="26" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B48">
-    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:E40 D42:E44 E47">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8032,18 +8117,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -8053,7 +8138,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -8067,10 +8152,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -8102,7 +8187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45627</v>
       </c>
@@ -8121,7 +8206,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45628</v>
       </c>
@@ -8154,7 +8239,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45629</v>
       </c>
@@ -8173,7 +8258,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45630</v>
       </c>
@@ -8192,7 +8277,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45631</v>
       </c>
@@ -8211,7 +8296,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45632</v>
       </c>
@@ -8230,7 +8315,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>45633</v>
       </c>
@@ -8249,7 +8334,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45634</v>
       </c>
@@ -8268,7 +8353,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45635</v>
       </c>
@@ -8287,7 +8372,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45636</v>
       </c>
@@ -8306,7 +8391,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45637</v>
       </c>
@@ -8325,7 +8410,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45638</v>
       </c>
@@ -8344,7 +8429,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45639</v>
       </c>
@@ -8363,7 +8448,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>45640</v>
       </c>
@@ -8382,7 +8467,7 @@
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45641</v>
       </c>
@@ -8401,7 +8486,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>45642</v>
       </c>
@@ -8432,7 +8517,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45643</v>
       </c>
@@ -8451,7 +8536,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45644</v>
       </c>
@@ -8470,7 +8555,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45645</v>
       </c>
@@ -8489,7 +8574,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45646</v>
       </c>
@@ -8508,7 +8593,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>45647</v>
       </c>
@@ -8527,7 +8612,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>45648</v>
       </c>
@@ -8546,7 +8631,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45649</v>
       </c>
@@ -8565,7 +8650,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45650</v>
       </c>
@@ -8584,7 +8669,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="47">
         <v>45651</v>
       </c>
@@ -8615,7 +8700,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>45652</v>
       </c>
@@ -8646,7 +8731,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45653</v>
       </c>
@@ -8665,7 +8750,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="31">
         <v>45654</v>
       </c>
@@ -8684,7 +8769,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="31">
         <v>45655</v>
       </c>
@@ -8703,7 +8788,7 @@
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45656</v>
       </c>
@@ -8722,7 +8807,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>45657</v>
       </c>
@@ -8741,7 +8826,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -8752,7 +8837,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -8766,7 +8851,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -8779,18 +8864,18 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A43" s="117" t="s">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -8804,12 +8889,12 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="118" t="s">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="16"/>
       <c r="E45" s="17" t="s">
         <v>96</v>
@@ -8820,7 +8905,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8834,7 +8919,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8843,7 +8928,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8854,7 +8939,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -8865,56 +8950,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="61" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E41 D43:E45 E48">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8971,18 +9056,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -8992,7 +9077,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -9006,10 +9091,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -9041,7 +9126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <v>45658</v>
       </c>
@@ -9074,7 +9159,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45659</v>
       </c>
@@ -9107,7 +9192,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45660</v>
       </c>
@@ -9126,7 +9211,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>45661</v>
       </c>
@@ -9145,7 +9230,7 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>45662</v>
       </c>
@@ -9164,7 +9249,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45663</v>
       </c>
@@ -9183,7 +9268,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45664</v>
       </c>
@@ -9202,7 +9287,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45665</v>
       </c>
@@ -9221,7 +9306,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45666</v>
       </c>
@@ -9240,7 +9325,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45667</v>
       </c>
@@ -9259,7 +9344,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>45668</v>
       </c>
@@ -9278,7 +9363,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45669</v>
       </c>
@@ -9297,7 +9382,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45670</v>
       </c>
@@ -9316,7 +9401,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45671</v>
       </c>
@@ -9335,7 +9420,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45672</v>
       </c>
@@ -9354,7 +9439,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>45673</v>
       </c>
@@ -9373,7 +9458,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45674</v>
       </c>
@@ -9392,7 +9477,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>45675</v>
       </c>
@@ -9411,7 +9496,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>45676</v>
       </c>
@@ -9430,7 +9515,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45677</v>
       </c>
@@ -9449,7 +9534,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45678</v>
       </c>
@@ -9468,7 +9553,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45679</v>
       </c>
@@ -9487,7 +9572,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45680</v>
       </c>
@@ -9506,7 +9591,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45681</v>
       </c>
@@ -9525,7 +9610,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>45682</v>
       </c>
@@ -9544,7 +9629,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>45683</v>
       </c>
@@ -9563,7 +9648,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45684</v>
       </c>
@@ -9582,7 +9667,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45685</v>
       </c>
@@ -9601,7 +9686,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45686</v>
       </c>
@@ -9620,7 +9705,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45687</v>
       </c>
@@ -9639,7 +9724,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="13.15" thickBot="1">
+    <row r="39" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>45688</v>
       </c>
@@ -9658,7 +9743,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9669,7 +9754,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -9683,7 +9768,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -9696,18 +9781,18 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A43" s="117" t="s">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -9721,12 +9806,12 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="118" t="s">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="16"/>
       <c r="E45" s="17" t="s">
         <v>96</v>
@@ -9737,7 +9822,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9751,7 +9836,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9760,7 +9845,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9771,7 +9856,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -9782,56 +9867,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="54" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E41 D43:E45 E48">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9904,18 +9989,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -9925,7 +10010,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -9939,10 +10024,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -9974,7 +10059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45689</v>
       </c>
@@ -9993,7 +10078,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45690</v>
       </c>
@@ -10012,7 +10097,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45691</v>
       </c>
@@ -10045,7 +10130,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45692</v>
       </c>
@@ -10064,7 +10149,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45693</v>
       </c>
@@ -10083,7 +10168,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45694</v>
       </c>
@@ -10102,7 +10187,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45695</v>
       </c>
@@ -10121,7 +10206,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45696</v>
       </c>
@@ -10140,7 +10225,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45697</v>
       </c>
@@ -10159,7 +10244,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45698</v>
       </c>
@@ -10178,7 +10263,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45699</v>
       </c>
@@ -10197,7 +10282,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45700</v>
       </c>
@@ -10216,7 +10301,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45701</v>
       </c>
@@ -10235,7 +10320,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45702</v>
       </c>
@@ -10254,7 +10339,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45703</v>
       </c>
@@ -10273,7 +10358,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45704</v>
       </c>
@@ -10292,7 +10377,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45705</v>
       </c>
@@ -10311,7 +10396,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45706</v>
       </c>
@@ -10330,7 +10415,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45707</v>
       </c>
@@ -10349,7 +10434,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45708</v>
       </c>
@@ -10368,7 +10453,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45709</v>
       </c>
@@ -10387,7 +10472,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>45710</v>
       </c>
@@ -10406,7 +10491,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
         <v>45711</v>
       </c>
@@ -10425,7 +10510,7 @@
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45712</v>
       </c>
@@ -10444,7 +10529,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45713</v>
       </c>
@@ -10463,7 +10548,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>45714</v>
       </c>
@@ -10482,7 +10567,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45715</v>
       </c>
@@ -10501,7 +10586,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45716</v>
       </c>
@@ -10520,7 +10605,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="37" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -10531,7 +10616,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" spans="1:10" ht="13.9" customHeight="1">
+    <row r="38" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -10545,7 +10630,7 @@
       </c>
       <c r="H38" s="40"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="9"/>
@@ -10558,18 +10643,18 @@
       </c>
       <c r="H39" s="40"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A40" s="117" t="s">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9">
+    <row r="41" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="6"/>
@@ -10583,12 +10668,12 @@
       </c>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="118" t="s">
+    <row r="42" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17" t="s">
         <v>96</v>
@@ -10599,7 +10684,7 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="14.45" thickBot="1">
+    <row r="43" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -10613,7 +10698,7 @@
       </c>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9" thickBot="1">
+    <row r="44" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -10622,7 +10707,7 @@
       <c r="F44" s="2"/>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:10" ht="13.9" thickBot="1">
+    <row r="45" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10633,7 +10718,7 @@
       <c r="F45" s="21"/>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="13.15" thickBot="1">
+    <row r="46" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E46" s="39"/>
       <c r="H46" s="40"/>
     </row>
@@ -10644,56 +10729,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B46">
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:E38 D40:E42 E45">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10750,18 +10835,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -10771,7 +10856,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -10785,10 +10870,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -10820,7 +10905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45717</v>
       </c>
@@ -10839,7 +10924,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45718</v>
       </c>
@@ -10858,7 +10943,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45719</v>
       </c>
@@ -10891,7 +10976,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45720</v>
       </c>
@@ -10910,7 +10995,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45721</v>
       </c>
@@ -10929,7 +11014,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45722</v>
       </c>
@@ -10948,7 +11033,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45723</v>
       </c>
@@ -10967,7 +11052,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45724</v>
       </c>
@@ -10986,7 +11071,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45725</v>
       </c>
@@ -11005,7 +11090,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45726</v>
       </c>
@@ -11024,7 +11109,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45727</v>
       </c>
@@ -11043,7 +11128,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45728</v>
       </c>
@@ -11062,7 +11147,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45729</v>
       </c>
@@ -11081,7 +11166,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45730</v>
       </c>
@@ -11100,7 +11185,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45731</v>
       </c>
@@ -11119,7 +11204,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45732</v>
       </c>
@@ -11138,7 +11223,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45733</v>
       </c>
@@ -11157,7 +11242,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45734</v>
       </c>
@@ -11176,7 +11261,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45735</v>
       </c>
@@ -11195,7 +11280,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45736</v>
       </c>
@@ -11214,7 +11299,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
         <v>45737</v>
       </c>
@@ -11245,7 +11330,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>45738</v>
       </c>
@@ -11264,7 +11349,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
         <v>45739</v>
       </c>
@@ -11283,7 +11368,7 @@
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45740</v>
       </c>
@@ -11302,7 +11387,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45741</v>
       </c>
@@ -11321,7 +11406,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>45742</v>
       </c>
@@ -11340,7 +11425,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45743</v>
       </c>
@@ -11359,7 +11444,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45744</v>
       </c>
@@ -11378,7 +11463,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="31">
         <v>45745</v>
       </c>
@@ -11397,7 +11482,7 @@
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="31">
         <v>45746</v>
       </c>
@@ -11416,7 +11501,7 @@
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>45747</v>
       </c>
@@ -11435,7 +11520,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="45"/>
@@ -11446,7 +11531,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -11460,7 +11545,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -11473,18 +11558,18 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A43" s="117" t="s">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -11498,12 +11583,12 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="118" t="s">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="16"/>
       <c r="E45" s="17" t="s">
         <v>96</v>
@@ -11514,7 +11599,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -11528,7 +11613,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -11537,7 +11622,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -11548,7 +11633,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -11559,56 +11644,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7 D40:E41">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:E45 E48">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11665,18 +11750,18 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="23"/>
-    <col min="5" max="5" width="13.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="23"/>
+    <col min="5" max="5" width="13.19921875" style="23" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="23"/>
+    <col min="7" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="94"/>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -11684,7 +11769,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="98"/>
@@ -11692,7 +11777,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="98"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="99"/>
@@ -11700,7 +11785,7 @@
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="100"/>
@@ -11708,7 +11793,7 @@
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11805,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>112</v>
       </c>
@@ -11733,7 +11818,7 @@
       <c r="E6" s="99"/>
       <c r="F6" s="99"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87"/>
       <c r="B7" s="88"/>
       <c r="C7" s="88"/>
@@ -11741,139 +11826,139 @@
       <c r="E7" s="99"/>
       <c r="F7" s="99"/>
     </row>
-    <row r="8" spans="1:15" ht="27.4" customHeight="1">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-    </row>
-    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="121" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="122"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="97" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="92">
         <v>45566</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="123"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="91">
         <v>200</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="92">
         <v>45566</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="123"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="91"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>45566</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="91"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="92">
         <v>45566</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="91"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="92">
         <v>45566</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="91"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="92">
         <v>45566</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="91"/>
     </row>
-    <row r="16" spans="1:15" ht="13.15" thickBot="1">
+    <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
         <v>45566</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="91"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="127" t="s">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="90">
         <f>SUM(F10:F16)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="87"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -11936,19 +12021,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="23"/>
+    <col min="2" max="2" width="11.69921875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -11956,33 +12041,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="93"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="109" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="109"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="110"/>
       <c r="B8" s="99"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1">
-      <c r="A9" s="145" t="s">
+    <row r="9" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.15">
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
         <v>128</v>
       </c>
@@ -12002,7 +12087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="101"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -12010,7 +12095,7 @@
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="101"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -12018,7 +12103,7 @@
       <c r="E12" s="101"/>
       <c r="F12" s="101"/>
     </row>
-    <row r="13" spans="1:6" ht="13.15" thickBot="1">
+    <row r="13" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -12026,7 +12111,7 @@
       <c r="E13" s="101"/>
       <c r="F13" s="101"/>
     </row>
-    <row r="14" spans="1:6" ht="13.15" thickBot="1">
+    <row r="14" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
@@ -12037,78 +12122,78 @@
       <c r="E14" s="103"/>
       <c r="F14" s="105"/>
     </row>
-    <row r="15" spans="1:6" ht="13.15" thickBot="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="146" t="s">
+    <row r="15" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="148"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.15" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.15" thickBot="1"/>
-    <row r="21" spans="1:6">
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="137"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.15" thickBot="1">
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12169,18 +12254,18 @@
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="52"/>
+    <col min="1" max="1" width="8.69921875" style="52"/>
     <col min="2" max="2" width="25.5" style="52" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="52"/>
-    <col min="4" max="4" width="19.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="52"/>
-    <col min="6" max="6" width="21.75" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="52"/>
+    <col min="3" max="3" width="8.69921875" style="52"/>
+    <col min="4" max="4" width="19.19921875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="52"/>
+    <col min="6" max="6" width="21.69921875" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="75" t="s">
         <v>23</v>
       </c>
@@ -12197,7 +12282,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="75" t="s">
         <v>139</v>
       </c>
@@ -12214,7 +12299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="75" t="s">
         <v>142</v>
       </c>
@@ -12231,7 +12316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="75" t="s">
         <v>146</v>
       </c>
@@ -12245,7 +12330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="75" t="s">
         <v>150</v>
       </c>
@@ -12259,7 +12344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
         <v>154</v>
       </c>
@@ -12273,7 +12358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="75" t="s">
         <v>157</v>
       </c>
@@ -12290,7 +12375,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="75" t="s">
         <v>162</v>
       </c>
@@ -12307,7 +12392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>166</v>
       </c>
@@ -12321,7 +12406,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="75" t="s">
         <v>170</v>
       </c>
@@ -12338,7 +12423,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="75" t="s">
         <v>175</v>
       </c>
@@ -12352,7 +12437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="75" t="s">
         <v>179</v>
       </c>
@@ -12363,7 +12448,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="75" t="s">
         <v>182</v>
       </c>
@@ -12375,7 +12460,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="75" t="s">
         <v>185</v>
       </c>
@@ -12387,7 +12472,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
         <v>14</v>
       </c>
@@ -12399,7 +12484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27.6">
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="75" t="s">
         <v>190</v>
       </c>
@@ -12411,7 +12496,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
@@ -12423,7 +12508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="75" t="s">
         <v>196</v>
       </c>
@@ -12435,7 +12520,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>199</v>
       </c>
@@ -12447,7 +12532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="75" t="s">
         <v>202</v>
       </c>
@@ -12459,7 +12544,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>205</v>
       </c>
@@ -12471,7 +12556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="75" t="s">
         <v>208</v>
       </c>
@@ -12483,7 +12568,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="75" t="s">
         <v>211</v>
       </c>
@@ -12495,7 +12580,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="75" t="s">
         <v>214</v>
       </c>
@@ -12507,7 +12592,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="75" t="s">
         <v>217</v>
       </c>
@@ -12518,7 +12603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="75" t="s">
         <v>220</v>
       </c>
@@ -12530,7 +12615,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="75" t="s">
         <v>223</v>
       </c>
@@ -12542,7 +12627,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="75" t="s">
         <v>226</v>
       </c>
@@ -12553,7 +12638,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="75" t="s">
         <v>229</v>
       </c>
@@ -12564,7 +12649,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="75" t="s">
         <v>232</v>
       </c>
@@ -12575,7 +12660,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="75" t="s">
         <v>235</v>
       </c>
@@ -12586,7 +12671,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="75" t="s">
         <v>238</v>
       </c>
@@ -12597,7 +12682,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="75" t="s">
         <v>241</v>
       </c>
@@ -12608,7 +12693,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="75" t="s">
         <v>244</v>
       </c>
@@ -12619,7 +12704,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="75" t="s">
         <v>247</v>
       </c>
@@ -12630,7 +12715,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="75" t="s">
         <v>250</v>
       </c>
@@ -12641,7 +12726,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="75" t="s">
         <v>253</v>
       </c>
@@ -12652,7 +12737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="75" t="s">
         <v>255</v>
       </c>
@@ -12663,7 +12748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
         <v>258</v>
       </c>
@@ -12671,107 +12756,107 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="64"/>
       <c r="D41" s="65"/>
       <c r="H41" s="76" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="62"/>
       <c r="H42" s="83" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="82" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="63"/>
       <c r="H44" s="83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="83" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H46" s="83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="63"/>
       <c r="H47" s="83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H48" s="82" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="82" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="82" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="82" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="67" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="66" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="15" thickBot="1">
+    <row r="55" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="68" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="8:8" ht="15" thickBot="1">
+    <row r="56" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="15" thickBot="1">
+    <row r="57" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H57" s="72"/>
     </row>
-    <row r="58" spans="8:8" ht="15" thickBot="1">
+    <row r="58" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="69"/>
     </row>
-    <row r="59" spans="8:8" ht="15" thickBot="1">
+    <row r="59" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H59" s="69"/>
     </row>
-    <row r="60" spans="8:8" ht="15" thickBot="1">
+    <row r="60" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="70"/>
     </row>
-    <row r="61" spans="8:8" ht="15" thickBot="1">
+    <row r="61" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="71"/>
     </row>
-    <row r="62" spans="8:8" ht="15" thickBot="1">
+    <row r="62" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="69"/>
     </row>
   </sheetData>
@@ -12790,6 +12875,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
@@ -12800,7 +12894,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEA673424E99D044B4A1FB44474552A9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="541cb6b9fee9288be1513af1acd9efd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d277ce56-8de3-43c1-b9ce-ff5033dad840" xmlns:ns3="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="073d35413c2933ae4492be48b3c2f5c2" ns2:_="" ns3:_="">
     <xsd:import namespace="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
@@ -12995,25 +13089,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC29632-8B69-4945-9C2B-FB532E8A4DAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400250E8-95F7-4304-A83D-99FCAE87D3D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{682054DA-A919-4A44-B858-9916CBEBFBB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC29632-8B69-4945-9C2B-FB532E8A4DAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400250E8-95F7-4304-A83D-99FCAE87D3D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{682054DA-A919-4A44-B858-9916CBEBFBB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
